--- a/JPADSandBox_v2/out/WEIGHTS/ATR-72.xlsx
+++ b/JPADSandBox_v2/out/WEIGHTS/ATR-72.xlsx
@@ -11,12 +11,16 @@
     <sheet name="WING" r:id="rId5" sheetId="3"/>
     <sheet name="HORIZONTAL TAIL" r:id="rId6" sheetId="4"/>
     <sheet name="VERTICAL TAIL" r:id="rId7" sheetId="5"/>
+    <sheet name="NACELLES" r:id="rId8" sheetId="6"/>
+    <sheet name="POWER PLANT" r:id="rId9" sheetId="7"/>
+    <sheet name="LANDING GEARS" r:id="rId10" sheetId="8"/>
+    <sheet name="SYSTEMS" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="64">
   <si>
     <t>Description</t>
   </si>
@@ -75,6 +79,12 @@
     <t>Maximum Passengers Weight</t>
   </si>
   <si>
+    <t>Fuel Mass</t>
+  </si>
+  <si>
+    <t>Fuel Weight</t>
+  </si>
+  <si>
     <t>Crew Mass</t>
   </si>
   <si>
@@ -166,6 +176,42 @@
   </si>
   <si>
     <t>TORENBEEK_1982</t>
+  </si>
+  <si>
+    <t>Total Reference Mass</t>
+  </si>
+  <si>
+    <t>Total mass estimated</t>
+  </si>
+  <si>
+    <t>WEIGHT ESTIMATION METHODS COMPARISON FOR EACH NACELLE</t>
+  </si>
+  <si>
+    <t>NACELLE 1</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>NACELLE 2</t>
+  </si>
+  <si>
+    <t>WEIGHT ESTIMATION METHODS COMPARISON FOR EACH ENGINE</t>
+  </si>
+  <si>
+    <t>ENGINE 1</t>
+  </si>
+  <si>
+    <t>Total Mass</t>
+  </si>
+  <si>
+    <t>ENGINE 2</t>
+  </si>
+  <si>
+    <t>Overall Mass</t>
+  </si>
+  <si>
+    <t>STANFORD</t>
   </si>
 </sst>
 </file>
@@ -378,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>229.54364550000003</v>
+        <v>4954.49177994087</v>
       </c>
     </row>
     <row r="15">
@@ -389,7 +435,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>2251.0541911425744</v>
+        <v>48586.96681375712</v>
       </c>
     </row>
     <row r="16">
@@ -400,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>20131.956045198745</v>
+        <v>229.54364550000003</v>
       </c>
     </row>
     <row r="17">
@@ -411,7 +457,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>197427.04675064824</v>
+        <v>2251.0541911425744</v>
       </c>
     </row>
     <row r="18">
@@ -422,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>19735.956045198745</v>
+        <v>20131.956045198745</v>
       </c>
     </row>
     <row r="19">
@@ -433,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>193543.61335064823</v>
+        <v>197427.04675064824</v>
       </c>
     </row>
     <row r="20">
@@ -444,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>13003.956045198749</v>
+        <v>19735.956045198745</v>
       </c>
     </row>
     <row r="21">
@@ -455,7 +501,7 @@
         <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>127525.24555064828</v>
+        <v>193543.61335064823</v>
       </c>
     </row>
     <row r="22">
@@ -466,7 +512,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>12774.412399698747</v>
+        <v>13003.956045198749</v>
       </c>
     </row>
     <row r="23">
@@ -477,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>125274.19135950568</v>
+        <v>127525.24555064828</v>
       </c>
     </row>
     <row r="24">
@@ -488,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>12188.456399698749</v>
+        <v>12774.412399698747</v>
       </c>
     </row>
     <row r="25">
@@ -499,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>119527.92595210572</v>
+        <v>125274.19135950568</v>
       </c>
     </row>
     <row r="26">
@@ -510,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>585.9559999999999</v>
+        <v>12188.456399698749</v>
       </c>
     </row>
     <row r="27">
@@ -521,7 +567,7 @@
         <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>5746.265407399998</v>
+        <v>119527.92595210572</v>
       </c>
     </row>
     <row r="28">
@@ -532,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0</v>
+        <v>585.9559999999999</v>
       </c>
     </row>
     <row r="29">
@@ -543,28 +589,50 @@
         <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0</v>
+        <v>5746.265407399998</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>13003.956045198749</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>13003.956045198749</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="n">
         <v>127525.24555064828</v>
       </c>
     </row>
@@ -592,15 +660,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
         <v>3340.5999999999995</v>
@@ -608,7 +676,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -624,15 +692,15 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
         <v>3484.0</v>
@@ -643,10 +711,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>2460.0</v>
@@ -657,10 +725,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
         <v>3024.0</v>
@@ -671,10 +739,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
         <v>2833.0</v>
@@ -685,10 +753,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
         <v>2491.0</v>
@@ -699,10 +767,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
         <v>3698.0</v>
@@ -713,10 +781,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
         <v>2998.333333333333</v>
@@ -746,15 +814,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
         <v>2006.3578899999998</v>
@@ -762,7 +830,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -773,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -789,15 +857,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>2409.0</v>
@@ -808,10 +876,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
         <v>1793.0</v>
@@ -822,10 +890,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
         <v>2117.0</v>
@@ -836,10 +904,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
         <v>2299.0</v>
@@ -850,10 +918,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
         <v>2493.0</v>
@@ -864,10 +932,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
         <v>2235.0</v>
@@ -878,10 +946,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" t="n">
         <v>2110.9999999999995</v>
@@ -911,15 +979,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
         <v>300.95368349999995</v>
@@ -927,7 +995,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -938,7 +1006,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -954,15 +1022,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>258.0</v>
@@ -973,10 +1041,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
         <v>149.0</v>
@@ -987,10 +1055,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
         <v>133.0</v>
@@ -1001,10 +1069,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
         <v>257.99999999999994</v>
@@ -1034,15 +1102,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
         <v>300.95368349999995</v>
@@ -1050,7 +1118,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1061,7 +1129,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1077,15 +1145,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>330.0</v>
@@ -1096,10 +1164,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
         <v>228.0</v>
@@ -1110,13 +1178,569 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
         <v>329.99999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="n">
+        <v>818.7999999999997</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>645.9999999999998</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-21.10405471421592</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>409.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-42.59892525647288</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>31.90034196384954</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-52.61358085002442</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="n">
+        <v>323.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="n">
+        <v>409.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-42.59892525647288</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>31.90034196384954</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-52.61358085002442</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>323.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="n">
+        <v>965.2445633599998</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1447.8668450399996</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-21.10405471421592</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>482.6222816799999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="n">
+        <v>723.9334225199998</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="n">
+        <v>482.6222816799999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="n">
+        <v>723.9334225199998</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="n">
+        <v>675.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>987.8878901438338</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="n">
+        <v>821.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.48564664101806</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1003.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>48.41669132879551</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1135.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67.94909736608466</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="n">
+        <v>988.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>46.19709973364902</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="n">
+        <v>821.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2118.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2324.2562213254223</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2324.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.726156751652502</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2324.0</v>
       </c>
     </row>
   </sheetData>
